--- a/TillDateRef.xlsx
+++ b/TillDateRef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhawana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE3B228-08C8-44EE-AC9E-4B1BD4080F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C312A03-3E36-4AFA-9004-5AA1612C6393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>SDLC Overview, Models &amp; Modeling, Agile, Object Oriented Design &amp; Programming,</t>
   </si>
@@ -144,6 +144,37 @@
   <si>
     <t>OOPS,Java Introduction &amp; Language Fundamentals and Coding standards
 Introduction to Java API, Array, Strings</t>
+  </si>
+  <si>
+    <t>Inheritance &amp; Polymorphism
+Abstract Class , Interfaces </t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/java-programming/inheritance
+https://www.javatpoint.com/inheritance-in-java
+https://docs.oracle.com/javase/tutorial/java/IandI/abstract.html
+https://www.javatpoint.com/abstract-class-in-java</t>
+  </si>
+  <si>
+    <t>Exception Handling
+Multi-threading, Executor Framework</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/java-programming/exception-handling
+https://www.programiz.com/java-programming/exceptions
+https://www.javatpoint.com/exception-handling-in-java
+https://www.tutorialspoint.com/java/java_multithreading.htm
+https://www.javatpoint.com/multithreading-in-java</t>
+  </si>
+  <si>
+    <t>Collection FrameWork &amp; Generics In Java
+IO Streams, Collections, Streams, Functional Programming</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/java-programming/collection-interface
+https://www.programiz.com/java-programming/generics
+https://www.geeksforgeeks.org/functional-programming-in-java-with-examples/
+https://www.geeksforgeeks.org/java-io-input-output-in-java-with-examples/</t>
   </si>
 </sst>
 </file>
@@ -277,18 +308,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +631,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>44322</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -614,8 +645,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
@@ -624,10 +655,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>44323</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -638,8 +669,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -648,10 +679,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>44326</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -662,18 +693,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="17">
         <v>44327</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -684,8 +715,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -694,10 +725,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>44328</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -708,8 +739,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,10 +755,10 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
         <v>6</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>44329</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -738,8 +769,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -751,14 +782,56 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>44333</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13">
+        <v>44334</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="13">
+        <v>44335</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13">
+        <v>44336</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TillDateRef.xlsx
+++ b/TillDateRef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhawana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C312A03-3E36-4AFA-9004-5AA1612C6393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D013C76-C4B2-4186-BD63-3A9029A578F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>SDLC Overview, Models &amp; Modeling, Agile, Object Oriented Design &amp; Programming,</t>
   </si>
@@ -175,6 +175,34 @@
 https://www.programiz.com/java-programming/generics
 https://www.geeksforgeeks.org/functional-programming-in-java-with-examples/
 https://www.geeksforgeeks.org/java-io-input-output-in-java-with-examples/</t>
+  </si>
+  <si>
+    <t>Java 8 features- Lambda and Stream 
+Java 8 features- Functional interfaces and default &amp; static methods</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/java8/java8_streams.htm
+https://www.geeksforgeeks.org/lambda-expressions-java-8/
+https://www.programiz.com/java-programming/outputstream
+https://www.programiz.com/java-programming/inputstream
+https://www.javatpoint.com/java-lambda-expressions
+https://beginnersbook.com/2017/10/java-8-interface-changes-default-method-and-static-method/
+https://www.tutorialspoint.com/default-method-vs-static-method-in-an-interface-in-java#:~:text=Since%20Java8%20static%20methods%20and,can%20have%20a%20default%20implementation.&amp;text=In%20short%2C%20you%20can%20access,objects%20of%20the%20implementing%20classes.</t>
+  </si>
+  <si>
+    <t>JDBC introfuction and CRUD operation, Unit Testing- Junit test cases</t>
+  </si>
+  <si>
+    <t>https://www.codejava.net/java-se/jdbc/jdbc-tutorial-sql-insert-select-update-and-delete-examples
+https://www.javatpoint.com/java-jdbc
+https://www.javatpoint.com/junit-tutorial</t>
+  </si>
+  <si>
+    <t>Java Design Patterns</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/the-basic-design-patterns-all-developers-need-to-know/
+https://www.javatpoint.com/design-patterns-in-java</t>
   </si>
 </sst>
 </file>
@@ -280,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,6 +348,13 @@
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C39" sqref="C34:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +867,42 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13">
+        <v>44337</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>44340</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
+        <v>44341</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -853,8 +924,9 @@
     <hyperlink ref="D2" r:id="rId1" display="https://www.tutorialspoint.com/sdlc/index.htm" xr:uid="{7EC999DF-8283-453A-BFA7-C2C8C051CA06}"/>
     <hyperlink ref="D14" r:id="rId2" display="https://stackify.com/performance-tuning-in-mysql/_x000a__x000a_" xr:uid="{1E68A0E8-5961-44E6-B00F-1FEF9321DCC7}"/>
     <hyperlink ref="D11" r:id="rId3" display="https://dev.mysql.com/doc/refman/8.0/en/cursors.html_x000a__x000a_" xr:uid="{03F887B2-0B29-4DBA-B34D-73439C236AAF}"/>
+    <hyperlink ref="D20" r:id="rId4" display="https://www.codejava.net/java-se/jdbc/jdbc-tutorial-sql-insert-select-update-and-delete-examples_x000a__x000a_" xr:uid="{5CC4E1F5-44A3-4933-AA05-EBC12C56A3DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/TillDateRef.xlsx
+++ b/TillDateRef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhawana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D013C76-C4B2-4186-BD63-3A9029A578F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060C9A2-CF9F-4F52-81E6-1503985356A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,21 +340,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,7 +640,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C39" sqref="C34:C39"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +666,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="19">
         <v>44322</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -680,8 +680,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
@@ -690,10 +690,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>44323</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -704,8 +704,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -714,10 +714,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>44326</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -728,18 +728,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>44327</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -750,8 +750,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -760,10 +760,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>44328</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -774,8 +774,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -790,10 +790,10 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="20">
         <v>44329</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -804,8 +804,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,18 +884,24 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15">
         <v>44340</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15">
         <v>44341</v>
       </c>
       <c r="C21" t="s">

--- a/TillDateRef.xlsx
+++ b/TillDateRef.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhawana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B060C9A2-CF9F-4F52-81E6-1503985356A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1632C5-DA57-454A-904A-857CE46B14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>SDLC Overview, Models &amp; Modeling, Agile, Object Oriented Design &amp; Programming,</t>
   </si>
@@ -201,8 +201,59 @@
     <t>Java Design Patterns</t>
   </si>
   <si>
-    <t>https://www.freecodecamp.org/news/the-basic-design-patterns-all-developers-need-to-know/
+    <t>https://www.freecodecamp.org/news/the-basic-design-patterns-all-developers-need-to-know
 https://www.javatpoint.com/design-patterns-in-java</t>
+  </si>
+  <si>
+    <t>HTML and CSS</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/html5-tutorial
+https://www.w3schools.com/html/</t>
+  </si>
+  <si>
+    <t>JavaScript: Javascript Introduction , functions</t>
+  </si>
+  <si>
+    <t>JavaScript:javascript object</t>
+  </si>
+  <si>
+    <t>https://javascript.info/
+https://www.w3schools.com/js/</t>
+  </si>
+  <si>
+    <t>AJAX and JQEURY session</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/ajax-tutorial/
+https://www.w3schools.com/xml/ajax_intro.asp
+https://www.tutorialspoint.com/ajax/index.htm
+https://learn.jquery.com/</t>
+  </si>
+  <si>
+    <t>Advance Javascript and Ajax</t>
+  </si>
+  <si>
+    <t>https://www.studytonight.com/servlet/
+https://www.javatpoint.com/servlet-tutorial
+https://www.tutorialspoint.com/servlets/index.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servlets introduction, Life Cycle of a servlet, HttpServlet and Other objects
+Servlet request and servlet collaboration
+</t>
+  </si>
+  <si>
+    <t>session tracking mechanism
+Servlet CRUD Operation</t>
+  </si>
+  <si>
+    <t>https://javapapers.com/servlet/explain-the-methods-used-for-session-tracking/</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/crud-in-servlet
+https://www.tutorialspoint.com/servlets/servlets-session-tracking.htm
+https://www.w3adda.com/servlet-tutorial/servlet-crud</t>
   </si>
 </sst>
 </file>
@@ -637,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +960,118 @@
       </c>
       <c r="D21" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15">
+        <v>44342</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="15">
+        <v>44343</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15">
+        <v>44344</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15">
+        <v>44347</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15">
+        <v>44348</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15">
+        <v>44350</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15">
+        <v>44351</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="15">
+        <v>44354</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -931,8 +1094,13 @@
     <hyperlink ref="D14" r:id="rId2" display="https://stackify.com/performance-tuning-in-mysql/_x000a__x000a_" xr:uid="{1E68A0E8-5961-44E6-B00F-1FEF9321DCC7}"/>
     <hyperlink ref="D11" r:id="rId3" display="https://dev.mysql.com/doc/refman/8.0/en/cursors.html_x000a__x000a_" xr:uid="{03F887B2-0B29-4DBA-B34D-73439C236AAF}"/>
     <hyperlink ref="D20" r:id="rId4" display="https://www.codejava.net/java-se/jdbc/jdbc-tutorial-sql-insert-select-update-and-delete-examples_x000a__x000a_" xr:uid="{5CC4E1F5-44A3-4933-AA05-EBC12C56A3DC}"/>
+    <hyperlink ref="D23" r:id="rId5" display="https://javascript.info/" xr:uid="{90B55576-67EF-4371-A41E-00DBF150741B}"/>
+    <hyperlink ref="D24" r:id="rId6" display="https://javascript.info/" xr:uid="{31D70E89-A2AE-4073-AA34-788DD7AA5799}"/>
+    <hyperlink ref="D26" r:id="rId7" display="https://javascript.info/" xr:uid="{0030E854-0908-4676-B2D3-8A29B4483205}"/>
+    <hyperlink ref="D28" r:id="rId8" xr:uid="{C5B5C3AB-FB1F-40C1-8251-3E18FE419E7F}"/>
+    <hyperlink ref="D29" r:id="rId9" display="https://www.javatpoint.com/crud-in-servlet_x000a__x000a_" xr:uid="{6FFDFF3D-AB6A-44E7-8DFA-E8A525377850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>